--- a/testData/resource_time_rule_test_data.xlsx
+++ b/testData/resource_time_rule_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_retime_rule" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>测试点说明</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -456,6 +456,26 @@
     <t>cisco匿名资源可以进行单点登录</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>登录方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -464,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +534,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -584,12 +611,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,9 +684,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -18297,10 +18332,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18308,55 +18343,87 @@
     <col min="1" max="1" width="43.125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27">
+    <row r="2" spans="1:6" ht="54">
       <c r="A2" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27">
+    <row r="3" spans="1:6" ht="54">
       <c r="A3" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27">
+    <row r="4" spans="1:6" ht="54">
       <c r="A4" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="16" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>